--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp3.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,20 +480,20 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-58.94642857142865</v>
+        <v>-58.94642857142855</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-58.94642857142865</v>
+        <v>-58.94642857142856</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
         <v>-0.016</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.5860015527949898</v>
+        <v>-0.5860015527950537</v>
       </c>
     </row>
     <row r="3">
@@ -501,20 +501,20 @@
         <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-59.38571428571433</v>
+        <v>-59.38571428571429</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-58.98847567287793</v>
+        <v>-58.98847567287783</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.3972386128364036</v>
+        <v>-0.3972386128364533</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
         <v>-0.208</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-3.348693064182171</v>
+        <v>-3.348693064182193</v>
       </c>
     </row>
     <row r="4">
@@ -522,20 +522,20 @@
         <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-59.59642857142861</v>
+        <v>-59.59642857142859</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-59.0305227743272</v>
+        <v>-59.03052277432711</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.5659057971014079</v>
+        <v>-0.5659057971014789</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
         <v>-0.368</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.001094720496887192</v>
+        <v>-0.001094720496872981</v>
       </c>
     </row>
     <row r="5">
@@ -543,13 +543,13 @@
         <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-59.65857142857147</v>
+        <v>-59.65857142857144</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-59.07256987577648</v>
+        <v>-59.07256987577639</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.5860015527949898</v>
+        <v>-0.5860015527950537</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -560,13 +560,13 @@
         <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-59.65761904761908</v>
+        <v>-59.65761904761905</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-59.11461697722575</v>
+        <v>-59.11461697722567</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.543002070393328</v>
+        <v>-0.5430020703933849</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -577,13 +577,13 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-59.70142857142861</v>
+        <v>-59.70142857142858</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-59.15666407867503</v>
+        <v>-59.15666407867494</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.5447644927535791</v>
+        <v>-0.544764492753643</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -594,13 +594,13 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-59.74142857142861</v>
+        <v>-59.74142857142858</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-59.19871118012431</v>
+        <v>-59.19871118012421</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.5427173913043077</v>
+        <v>-0.5427173913043646</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -611,13 +611,13 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-59.78952380952384</v>
+        <v>-59.78952380952381</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-59.24075828157358</v>
+        <v>-59.24075828157349</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.5487655279502661</v>
+        <v>-0.548765527950323</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -628,13 +628,13 @@
         <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-59.86095238095243</v>
+        <v>-59.86095238095238</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-59.28280538302285</v>
+        <v>-59.28280538302277</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.5781469979295721</v>
+        <v>-0.5781469979296148</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -645,13 +645,13 @@
         <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-59.94285714285718</v>
+        <v>-59.94285714285715</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-59.32485248447212</v>
+        <v>-59.32485248447204</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.618004658385054</v>
+        <v>-0.6180046583851109</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -662,13 +662,13 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-60.03285714285718</v>
+        <v>-60.03285714285715</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-59.3668995859214</v>
+        <v>-59.36689958592132</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.6659575569357798</v>
+        <v>-0.6659575569358367</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -679,13 +679,13 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-60.12333333333337</v>
+        <v>-60.12333333333334</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-59.40894668737068</v>
+        <v>-59.40894668737059</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.7143866459626906</v>
+        <v>-0.7143866459627475</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -696,13 +696,13 @@
         <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-60.20857142857147</v>
+        <v>-60.20857142857143</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-59.45099378881995</v>
+        <v>-59.45099378881987</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.757577639751517</v>
+        <v>-0.7575776397515597</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -713,13 +713,13 @@
         <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-60.30571428571433</v>
+        <v>-60.30571428571429</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-59.49304089026923</v>
+        <v>-59.49304089026914</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.8126733954451026</v>
+        <v>-0.8126733954451524</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -730,13 +730,13 @@
         <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-60.40476190476195</v>
+        <v>-60.40476190476191</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-59.53508799171851</v>
+        <v>-59.53508799171842</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.8696739130434423</v>
+        <v>-0.8696739130434921</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -747,13 +747,13 @@
         <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-60.51000000000004</v>
+        <v>-60.51000000000001</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-59.57713509316778</v>
+        <v>-59.5771350931677</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.9328649068322648</v>
+        <v>-0.9328649068323074</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -764,13 +764,13 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-60.60523809523814</v>
+        <v>-60.6052380952381</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-59.61918219461705</v>
+        <v>-59.61918219461698</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.9860559006210821</v>
+        <v>-0.9860559006211247</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -781,13 +781,13 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-60.69809523809528</v>
+        <v>-60.69809523809525</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-59.66122929606633</v>
+        <v>-59.66122929606625</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-1.036865942028946</v>
+        <v>-1.036865942029003</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -798,13 +798,13 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-60.80142857142861</v>
+        <v>-60.80142857142858</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-59.7032763975156</v>
+        <v>-59.70327639751552</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.098152173913007</v>
+        <v>-1.098152173913057</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -815,13 +815,13 @@
         <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-60.90809523809528</v>
+        <v>-60.90809523809524</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-59.74532349896488</v>
+        <v>-59.7453234989648</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.162771739130399</v>
+        <v>-1.162771739130442</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -832,13 +832,13 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-61.02000000000004</v>
+        <v>-61.02</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-59.78737060041416</v>
+        <v>-59.78737060041408</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.232629399585882</v>
+        <v>-1.232629399585925</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -849,13 +849,13 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-61.12523809523813</v>
+        <v>-61.1252380952381</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-59.82941770186343</v>
+        <v>-59.82941770186335</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.295820393374704</v>
+        <v>-1.295820393374754</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -866,13 +866,13 @@
         <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-61.21095238095242</v>
+        <v>-61.21095238095239</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-59.8714648033127</v>
+        <v>-59.87146480331263</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.339487577639716</v>
+        <v>-1.339487577639765</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -883,13 +883,13 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-61.30666666666671</v>
+        <v>-61.30666666666668</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-59.91351190476198</v>
+        <v>-59.9135119047619</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.393154761904739</v>
+        <v>-1.393154761904775</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -900,13 +900,13 @@
         <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-61.40142857142862</v>
+        <v>-61.40142857142858</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-59.95555900621125</v>
+        <v>-59.95555900621118</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-1.445869565217365</v>
+        <v>-1.4458695652174</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -917,13 +917,13 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-61.49285714285718</v>
+        <v>-61.49285714285715</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-59.99760610766053</v>
+        <v>-59.99760610766045</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-1.495251035196645</v>
+        <v>-1.495251035196695</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -934,13 +934,13 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-61.57428571428575</v>
+        <v>-61.57428571428572</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-60.0396532091098</v>
+        <v>-60.03965320910973</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-1.534632505175949</v>
+        <v>-1.534632505175992</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -951,13 +951,13 @@
         <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-61.6514285714286</v>
+        <v>-61.65142857142858</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-60.08170031055908</v>
+        <v>-60.08170031055901</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-1.569728260869525</v>
+        <v>-1.569728260869574</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -968,13 +968,13 @@
         <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-61.72333333333337</v>
+        <v>-61.72333333333334</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-60.12374741200836</v>
+        <v>-60.12374741200829</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-1.599585921325016</v>
+        <v>-1.599585921325058</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -985,13 +985,13 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-61.80000000000004</v>
+        <v>-61.80000000000001</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-60.16579451345763</v>
+        <v>-60.16579451345756</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-1.634205486542413</v>
+        <v>-1.634205486542456</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1002,13 +1002,13 @@
         <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-61.87714285714291</v>
+        <v>-61.87714285714287</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-60.2078416149069</v>
+        <v>-60.20784161490683</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.669301242236003</v>
+        <v>-1.669301242236038</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1019,13 +1019,13 @@
         <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-61.95571428571432</v>
+        <v>-61.95571428571429</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-60.24988871635618</v>
+        <v>-60.24988871635611</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-1.70582556935814</v>
+        <v>-1.705825569358176</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1036,13 +1036,13 @@
         <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-62.0319047619048</v>
+        <v>-62.03190476190477</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-60.29193581780545</v>
+        <v>-60.29193581780539</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-1.739968944099346</v>
+        <v>-1.739968944099381</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1053,13 +1053,13 @@
         <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-62.12666666666671</v>
+        <v>-62.12666666666667</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-60.33398291925473</v>
+        <v>-60.33398291925466</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-1.792683747411978</v>
+        <v>-1.792683747412013</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1070,13 +1070,13 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-62.22285714285718</v>
+        <v>-62.22285714285714</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-60.37603002070401</v>
+        <v>-60.37603002070394</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-1.846827122153172</v>
+        <v>-1.846827122153208</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1087,13 +1087,13 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-62.32142857142861</v>
+        <v>-62.32142857142858</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-60.41807712215328</v>
+        <v>-60.41807712215321</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-1.903351449275334</v>
+        <v>-1.903351449275362</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1104,13 +1104,13 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-62.41809523809528</v>
+        <v>-62.41809523809525</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-60.46012422360256</v>
+        <v>-60.46012422360249</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-1.95797101449272</v>
+        <v>-1.957971014492756</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1121,13 +1121,13 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-62.52000000000004</v>
+        <v>-62.52000000000001</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-60.50217132505183</v>
+        <v>-60.50217132505176</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-2.017828674948213</v>
+        <v>-2.017828674948248</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1138,13 +1138,13 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-62.63095238095242</v>
+        <v>-62.63095238095239</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-60.5442184265011</v>
+        <v>-60.54421842650104</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-2.086733954451319</v>
+        <v>-2.086733954451347</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1155,13 +1155,13 @@
         <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-62.76619047619052</v>
+        <v>-62.76619047619048</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-60.58626552795038</v>
+        <v>-60.58626552795032</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-2.179924948240135</v>
+        <v>-2.179924948240163</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1172,13 +1172,13 @@
         <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-62.91571428571432</v>
+        <v>-62.91571428571429</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-60.62831262939965</v>
+        <v>-60.62831262939959</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-2.287401656314671</v>
+        <v>-2.287401656314692</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1189,13 +1189,13 @@
         <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-63.06428571428575</v>
+        <v>-63.06428571428572</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-60.67035973084893</v>
+        <v>-60.67035973084887</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-2.393925983436823</v>
+        <v>-2.393925983436851</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1206,13 +1206,13 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-63.22000000000004</v>
+        <v>-63.22</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-60.71240683229821</v>
+        <v>-60.71240683229814</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-2.507593167701835</v>
+        <v>-2.507593167701856</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1223,13 +1223,13 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-63.3871428571429</v>
+        <v>-63.38714285714287</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-60.75445393374748</v>
+        <v>-60.75445393374742</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-2.632688923395428</v>
+        <v>-2.632688923395449</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1240,13 +1240,13 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-63.55333333333337</v>
+        <v>-63.55333333333334</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-60.79650103519675</v>
+        <v>-60.7965010351967</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-2.756832298136615</v>
+        <v>-2.756832298136644</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1257,13 +1257,13 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-63.72285714285718</v>
+        <v>-63.72285714285714</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-60.83854813664603</v>
+        <v>-60.83854813664597</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-2.884309006211147</v>
+        <v>-2.884309006211176</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1274,13 +1274,13 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-63.87238095238099</v>
+        <v>-63.87238095238096</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-60.8805952380953</v>
+        <v>-60.88059523809525</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-2.99178571428569</v>
+        <v>-2.991785714285712</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1291,13 +1291,13 @@
         <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-64.00952380952386</v>
+        <v>-64.00952380952381</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-60.92264233954458</v>
+        <v>-60.92264233954452</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-3.086881469979275</v>
+        <v>-3.086881469979289</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1308,13 +1308,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-64.13809523809529</v>
+        <v>-64.13809523809525</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-60.96468944099386</v>
+        <v>-60.9646894409938</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-3.173405797101431</v>
+        <v>-3.173405797101445</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1325,13 +1325,13 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-64.25666666666672</v>
+        <v>-64.25666666666669</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-61.00673654244313</v>
+        <v>-61.00673654244307</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-3.249930124223589</v>
+        <v>-3.249930124223617</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1342,13 +1342,13 @@
         <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-64.36333333333339</v>
+        <v>-64.36333333333334</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-61.04878364389241</v>
+        <v>-61.04878364389235</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-3.31454968944098</v>
+        <v>-3.314549689440994</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1359,13 +1359,13 @@
         <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-64.43952380952385</v>
+        <v>-64.43952380952382</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-61.09083074534168</v>
+        <v>-61.09083074534163</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-3.348693064182171</v>
+        <v>-3.348693064182193</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1376,13 +1376,13 @@
         <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-64.48000000000005</v>
+        <v>-64.48000000000002</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-61.13287784679095</v>
+        <v>-61.1328778467909</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-3.347122153209092</v>
+        <v>-3.347122153209114</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1393,13 +1393,13 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-64.51333333333336</v>
+        <v>-64.51333333333332</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-61.17492494824023</v>
+        <v>-61.17492494824018</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-3.338408385093132</v>
+        <v>-3.338408385093146</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1410,13 +1410,13 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-64.51142857142861</v>
+        <v>-64.51142857142858</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-61.2169720496895</v>
+        <v>-61.21697204968945</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-3.294456521739107</v>
+        <v>-3.294456521739129</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1427,13 +1427,13 @@
         <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-64.49000000000004</v>
+        <v>-64.49000000000001</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-61.25901915113878</v>
+        <v>-61.25901915113873</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-3.230980848861257</v>
+        <v>-3.230980848861279</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1444,13 +1444,13 @@
         <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-64.43857142857146</v>
+        <v>-64.43857142857144</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-61.30106625258806</v>
+        <v>-61.30106625258801</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-3.137505175983407</v>
+        <v>-3.137505175983428</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1461,13 +1461,13 @@
         <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-64.36142857142862</v>
+        <v>-64.36142857142858</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-61.34311335403733</v>
+        <v>-61.34311335403728</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-3.01831521739129</v>
+        <v>-3.018315217391297</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1478,13 +1478,13 @@
         <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-64.27047619047623</v>
+        <v>-64.27047619047619</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-61.38516045548661</v>
+        <v>-61.38516045548656</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-2.885315734989625</v>
+        <v>-2.885315734989632</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1495,13 +1495,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-64.17952380952384</v>
+        <v>-64.1795238095238</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-61.42720755693588</v>
+        <v>-61.42720755693583</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-2.75231625258796</v>
+        <v>-2.752316252587967</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1512,13 +1512,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-64.08000000000004</v>
+        <v>-64.08000000000001</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-61.46925465838515</v>
+        <v>-61.46925465838511</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-2.610745341614887</v>
+        <v>-2.610745341614901</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1529,13 +1529,13 @@
         <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-63.9666666666667</v>
+        <v>-63.96666666666667</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-61.51130175983443</v>
+        <v>-61.51130175983438</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-2.455364906832273</v>
+        <v>-2.455364906832287</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1546,13 +1546,13 @@
         <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-63.84047619047624</v>
+        <v>-63.8404761904762</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-61.55334886128371</v>
+        <v>-61.55334886128366</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-2.287127329192529</v>
+        <v>-2.287127329192543</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1563,13 +1563,13 @@
         <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-63.72904761904766</v>
+        <v>-63.72904761904763</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-61.59539596273298</v>
+        <v>-61.59539596273294</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-2.133651656314683</v>
+        <v>-2.13365165631469</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1580,13 +1580,13 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-63.61095238095243</v>
+        <v>-63.61095238095239</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-61.63744306418226</v>
+        <v>-61.63744306418221</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-1.973509316770169</v>
+        <v>-1.973509316770176</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1597,13 +1597,13 @@
         <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-63.4971428571429</v>
+        <v>-63.49714285714287</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-61.67949016563153</v>
+        <v>-61.67949016563148</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-1.81765269151137</v>
+        <v>-1.817652691511384</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1614,13 +1614,13 @@
         <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-63.3776190476191</v>
+        <v>-63.37761904761906</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-61.72153726708081</v>
+        <v>-61.72153726708076</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-1.656081780538294</v>
+        <v>-1.656081780538301</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1631,13 +1631,13 @@
         <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-63.252380952381</v>
+        <v>-63.25238095238096</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-61.76358436853008</v>
+        <v>-61.76358436853004</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-1.488796583850913</v>
+        <v>-1.48879658385092</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1648,13 +1648,13 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-63.14333333333337</v>
+        <v>-63.14333333333334</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-61.80563146997936</v>
+        <v>-61.80563146997932</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-1.337701863354013</v>
+        <v>-1.33770186335402</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1665,13 +1665,13 @@
         <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-63.05619047619052</v>
+        <v>-63.05619047619048</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-61.84767857142863</v>
+        <v>-61.84767857142859</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-1.208511904761885</v>
+        <v>-1.208511904761892</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1682,13 +1682,13 @@
         <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-62.97523809523814</v>
+        <v>-62.9752380952381</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-61.88972567287791</v>
+        <v>-61.88972567287787</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-1.085512422360232</v>
+        <v>-1.085512422360239</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1699,10 +1699,10 @@
         <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-62.90047619047623</v>
+        <v>-62.90047619047619</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-61.93177277432718</v>
+        <v>-61.93177277432714</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>-0.9687034161490473</v>
@@ -1716,10 +1716,10 @@
         <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-62.82476190476195</v>
+        <v>-62.82476190476191</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-61.97381987577646</v>
+        <v>-61.97381987577642</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>-0.850942028985493</v>
@@ -1733,13 +1733,13 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-62.7619047619048</v>
+        <v>-62.76190476190477</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-62.01586697722573</v>
+        <v>-62.01586697722569</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.7460377846790678</v>
+        <v>-0.7460377846790749</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1750,10 +1750,10 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-62.70952380952384</v>
+        <v>-62.70952380952381</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-62.057914078675</v>
+        <v>-62.05791407867497</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>-0.6516097308488398</v>
@@ -1767,10 +1767,10 @@
         <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-62.66333333333336</v>
+        <v>-62.66333333333333</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-62.09996118012428</v>
+        <v>-62.09996118012425</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>-0.5633721532090803</v>
@@ -1784,13 +1784,13 @@
         <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-62.61476190476194</v>
+        <v>-62.61476190476191</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-62.14200828157356</v>
+        <v>-62.14200828157352</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.4727536231883818</v>
+        <v>-0.4727536231883889</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1801,10 +1801,10 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-62.56904761904766</v>
+        <v>-62.56904761904762</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-62.18405538302283</v>
+        <v>-62.18405538302279</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>-0.3849922360248286</v>
@@ -1818,10 +1818,10 @@
         <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-62.53761904761909</v>
+        <v>-62.53761904761905</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-62.22610248447211</v>
+        <v>-62.22610248447207</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>-0.3115165631469807</v>
@@ -1835,13 +1835,13 @@
         <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-62.52619047619052</v>
+        <v>-62.52619047619049</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-62.26814958592138</v>
+        <v>-62.26814958592135</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.2580408902691431</v>
+        <v>-0.258040890269136</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1852,10 +1852,10 @@
         <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-62.52476190476195</v>
+        <v>-62.52476190476192</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-62.31019668737066</v>
+        <v>-62.31019668737063</v>
       </c>
       <c r="D82" s="2" t="n">
         <v>-0.2145652173912893</v>
@@ -1869,10 +1869,10 @@
         <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-62.51904761904766</v>
+        <v>-62.51904761904763</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-62.35224378881993</v>
+        <v>-62.3522437888199</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>-0.1668038302277282</v>
@@ -1886,10 +1886,10 @@
         <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-62.51380952380956</v>
+        <v>-62.51380952380953</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-62.3942908902692</v>
+        <v>-62.39429089026918</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>-0.1195186335403591</v>
@@ -1903,10 +1903,10 @@
         <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-62.52000000000004</v>
+        <v>-62.52000000000001</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-62.43633799171848</v>
+        <v>-62.43633799171845</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>-0.08366200828155712</v>
@@ -1920,13 +1920,13 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-62.53857142857147</v>
+        <v>-62.53857142857144</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-62.47838509316776</v>
+        <v>-62.47838509316773</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.06018633540371354</v>
+        <v>-0.06018633540370644</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1937,13 +1937,13 @@
         <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-62.56619047619053</v>
+        <v>-62.56619047619049</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-62.52043219461703</v>
+        <v>-62.520432194617</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.04575828157349804</v>
+        <v>-0.04575828157348383</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1954,13 +1954,13 @@
         <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-62.58333333333338</v>
+        <v>-62.58333333333334</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-62.56247929606631</v>
+        <v>-62.56247929606628</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.02085403726707113</v>
+        <v>-0.02085403726706403</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1971,13 +1971,13 @@
         <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-62.60190476190481</v>
+        <v>-62.60190476190477</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-62.60452639751558</v>
+        <v>-62.60452639751556</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0.002621635610779549</v>
+        <v>0.002621635610786655</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1988,13 +1988,13 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-62.63142857142861</v>
+        <v>-62.63142857142857</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-62.64657349896486</v>
+        <v>-62.64657349896483</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0.01514492753624097</v>
+        <v>0.01514492753626229</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2005,13 +2005,13 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-62.67047619047624</v>
+        <v>-62.67047619047619</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-62.68862060041413</v>
+        <v>-62.6886206004141</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0.01814440993789646</v>
+        <v>0.01814440993791067</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2022,13 +2022,13 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-62.72476190476195</v>
+        <v>-62.72476190476191</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-62.73066770186341</v>
+        <v>-62.73066770186338</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.00590579710146244</v>
+        <v>0.005905797101476651</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2039,13 +2039,13 @@
         <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-62.77380952380957</v>
+        <v>-62.77380952380953</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-62.77271480331268</v>
+        <v>-62.77271480331266</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>-0.001094720496887192</v>
+        <v>-0.001094720496872981</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2056,13 +2056,13 @@
         <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-62.81476190476195</v>
+        <v>-62.81476190476192</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-62.81476190476196</v>
+        <v>-62.81476190476194</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>2.131628207280301e-14</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2073,10 +2073,10 @@
         <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-62.86380952380956</v>
+        <v>-62.86380952380952</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-62.86380952380956</v>
+        <v>-62.86380952380952</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-62.91952380952385</v>
+        <v>-62.91952380952382</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-62.91952380952385</v>
+        <v>-62.91952380952382</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2107,10 +2107,10 @@
         <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-62.98523809523813</v>
+        <v>-62.9852380952381</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-62.98523809523813</v>
+        <v>-62.9852380952381</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2124,10 +2124,10 @@
         <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-63.04904761904766</v>
+        <v>-63.04904761904763</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-63.04904761904766</v>
+        <v>-63.04904761904763</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-63.1078571428572</v>
+        <v>-63.10785714285718</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-63.1078571428572</v>
+        <v>-63.10785714285718</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2158,10 +2158,10 @@
         <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-63.17071428571438</v>
+        <v>-63.17071428571437</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-63.17071428571438</v>
+        <v>-63.17071428571437</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-63.24261904761917</v>
+        <v>-63.24261904761919</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-63.24261904761917</v>
+        <v>-63.24261904761919</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>-0.016</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.5860015527949898</v>
+        <v>-0.5860015527950537</v>
       </c>
     </row>
     <row r="3">
@@ -2235,7 +2235,7 @@
         <v>-0.208</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-3.348693064182171</v>
+        <v>-3.348693064182193</v>
       </c>
     </row>
     <row r="4">
@@ -2243,7 +2243,7 @@
         <v>-0.368</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.001094720496887192</v>
+        <v>-0.001094720496872981</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp3.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="19" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,79 +477,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-58.94642857142855</v>
+        <v>-61.40595238095247</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-58.94642857142856</v>
+        <v>-61.40595238095246</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>-7.105427357601002e-15</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.216</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.5860015527950537</v>
+        <v>-2.559948412698382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-59.38571428571429</v>
+        <v>-61.49547619047624</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-58.98847567287783</v>
+        <v>-61.42482936507945</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.3972386128364533</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="n">
-        <v>-0.208</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>-3.348693064182193</v>
-      </c>
+        <v>-0.07064682539679268</v>
+      </c>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-59.59642857142859</v>
+        <v>-61.57619047619052</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-59.03052277432711</v>
+        <v>-61.44370634920643</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.5659057971014789</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="n">
-        <v>-0.368</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>-0.001094720496872981</v>
-      </c>
+        <v>-0.1324841269840888</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-59.65857142857144</v>
+        <v>-61.65142857142861</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-59.07256987577639</v>
+        <v>-61.46258333333341</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.5860015527950537</v>
+        <v>-0.1888452380951975</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -557,16 +549,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-59.65761904761905</v>
+        <v>-61.72333333333337</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-59.11461697722567</v>
+        <v>-61.4814603174604</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.5430020703933849</v>
+        <v>-0.2418730158729758</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -574,16 +566,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-59.70142857142858</v>
+        <v>-61.80000000000004</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-59.15666407867494</v>
+        <v>-61.50033730158738</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.544764492753643</v>
+        <v>-0.2996626984126607</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -591,16 +583,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-59.74142857142858</v>
+        <v>-61.87714285714291</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-59.19871118012421</v>
+        <v>-61.51921428571436</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.5427173913043646</v>
+        <v>-0.3579285714285447</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -608,16 +600,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-59.78952380952381</v>
+        <v>-61.95571428571432</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-59.24075828157349</v>
+        <v>-61.53809126984135</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.548765527950323</v>
+        <v>-0.4176230158729766</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -625,16 +617,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-59.86095238095238</v>
+        <v>-62.0319047619048</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-59.28280538302277</v>
+        <v>-61.55696825396834</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.5781469979296148</v>
+        <v>-0.4749365079364622</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -642,16 +634,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-59.94285714285715</v>
+        <v>-62.12666666666671</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-59.32485248447204</v>
+        <v>-61.57584523809532</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.6180046583851109</v>
+        <v>-0.550821428571389</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -659,16 +651,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-60.03285714285715</v>
+        <v>-62.22285714285718</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-59.36689958592132</v>
+        <v>-61.5947222222223</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.6659575569358367</v>
+        <v>-0.6281349206348779</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -676,16 +668,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-60.12333333333334</v>
+        <v>-62.32142857142861</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-59.40894668737059</v>
+        <v>-61.61359920634928</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.7143866459627475</v>
+        <v>-0.707829365079327</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -693,16 +685,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-60.20857142857143</v>
+        <v>-62.41809523809528</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-59.45099378881987</v>
+        <v>-61.63247619047627</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.7575776397515597</v>
+        <v>-0.785619047619015</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -710,16 +702,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-60.30571428571429</v>
+        <v>-62.52000000000004</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-59.49304089026914</v>
+        <v>-61.65135317460325</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.8126733954451524</v>
+        <v>-0.8686468253967874</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -727,16 +719,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-60.40476190476191</v>
+        <v>-62.63095238095242</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-59.53508799171842</v>
+        <v>-61.67023015873023</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.8696739130434921</v>
+        <v>-0.9607222222221807</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -744,16 +736,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-60.51000000000001</v>
+        <v>-62.76619047619052</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-59.5771350931677</v>
+        <v>-61.68910714285722</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.9328649068323074</v>
+        <v>-1.077083333333299</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -761,16 +753,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-60.6052380952381</v>
+        <v>-62.91571428571432</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-59.61918219461698</v>
+        <v>-61.7079841269842</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.9860559006211247</v>
+        <v>-1.207730158730122</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -778,16 +770,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-60.69809523809525</v>
+        <v>-63.06428571428575</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-59.66122929606625</v>
+        <v>-61.72686111111118</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-1.036865942029003</v>
+        <v>-1.337424603174568</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -795,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-60.80142857142858</v>
+        <v>-63.22000000000003</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-59.70327639751552</v>
+        <v>-61.74573809523817</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.098152173913057</v>
+        <v>-1.474261904761867</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -812,16 +804,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-60.90809523809524</v>
+        <v>-63.3871428571429</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-59.7453234989648</v>
+        <v>-61.76461507936515</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.162771739130442</v>
+        <v>-1.622527777777755</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -829,16 +821,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-61.02</v>
+        <v>-63.55333333333337</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-59.78737060041408</v>
+        <v>-61.78349206349213</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.232629399585925</v>
+        <v>-1.769841269841237</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -846,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-61.1252380952381</v>
+        <v>-63.72285714285718</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-59.82941770186335</v>
+        <v>-61.80236904761912</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.295820393374754</v>
+        <v>-1.920488095238063</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -863,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-61.21095238095239</v>
+        <v>-63.87238095238099</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-59.87146480331263</v>
+        <v>-61.8212460317461</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-1.339487577639765</v>
+        <v>-2.051134920634894</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -880,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-61.30666666666668</v>
+        <v>-64.00952380952386</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-59.9135119047619</v>
+        <v>-61.84012301587308</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-1.393154761904775</v>
+        <v>-2.169400793650773</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -897,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-61.40142857142858</v>
+        <v>-64.13809523809529</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-59.95555900621118</v>
+        <v>-61.85900000000007</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-1.4458695652174</v>
+        <v>-2.279095238095223</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -914,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-61.49285714285715</v>
+        <v>-64.25666666666672</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-59.99760610766045</v>
+        <v>-61.87787698412705</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-1.495251035196695</v>
+        <v>-2.378789682539669</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -931,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-61.57428571428572</v>
+        <v>-64.36333333333337</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-60.03965320910973</v>
+        <v>-61.89675396825403</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-1.534632505175992</v>
+        <v>-2.46657936507934</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -948,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-61.65142857142858</v>
+        <v>-64.43952380952385</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-60.08170031055901</v>
+        <v>-61.91563095238102</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-1.569728260869574</v>
+        <v>-2.523892857142833</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -965,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-61.72333333333334</v>
+        <v>-64.48000000000005</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-60.12374741200829</v>
+        <v>-61.934507936508</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-1.599585921325058</v>
+        <v>-2.545492063492048</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -982,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-61.80000000000001</v>
+        <v>-64.51333333333336</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-60.16579451345756</v>
+        <v>-61.95338492063498</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-1.634205486542456</v>
+        <v>-2.559948412698382</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -999,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-61.87714285714287</v>
+        <v>-64.51142857142861</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-60.20784161490683</v>
+        <v>-61.97226190476196</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-1.669301242236038</v>
+        <v>-2.539166666666645</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1016,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-61.95571428571429</v>
+        <v>-64.49000000000004</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-60.24988871635611</v>
+        <v>-61.99113888888895</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-1.705825569358176</v>
+        <v>-2.49886111111109</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1033,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-62.03190476190477</v>
+        <v>-64.43857142857146</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-60.29193581780539</v>
+        <v>-62.01001587301593</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-1.739968944099381</v>
+        <v>-2.428555555555533</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1050,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-62.12666666666667</v>
+        <v>-64.3614285714286</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-60.33398291925466</v>
+        <v>-62.02889285714291</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-1.792683747412013</v>
+        <v>-2.33253571428569</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1067,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-62.22285714285714</v>
+        <v>-64.27047619047623</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-60.37603002070394</v>
+        <v>-62.0477698412699</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-1.846827122153208</v>
+        <v>-2.222706349206334</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1084,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-62.32142857142858</v>
+        <v>-64.17952380952384</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-60.41807712215321</v>
+        <v>-62.06664682539688</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-1.903351449275362</v>
+        <v>-2.112876984126963</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1101,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-62.41809523809525</v>
+        <v>-64.08000000000004</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-60.46012422360249</v>
+        <v>-62.08552380952386</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-1.957971014492756</v>
+        <v>-1.994476190476178</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1118,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-62.52000000000001</v>
+        <v>-63.9666666666667</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-60.50217132505176</v>
+        <v>-62.10440079365085</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-2.017828674948248</v>
+        <v>-1.862265873015858</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1135,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-62.63095238095239</v>
+        <v>-63.84047619047624</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-60.54421842650104</v>
+        <v>-62.12327777777783</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-2.086733954451347</v>
+        <v>-1.717198412698409</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1152,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-62.76619047619048</v>
+        <v>-63.72904761904766</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-60.58626552795032</v>
+        <v>-62.14215476190481</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-2.179924948240163</v>
+        <v>-1.58689285714285</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1169,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-62.91571428571429</v>
+        <v>-63.61095238095243</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-60.62831262939959</v>
+        <v>-62.1610317460318</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-2.287401656314692</v>
+        <v>-1.44992063492063</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1186,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-63.06428571428572</v>
+        <v>-63.4971428571429</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-60.67035973084887</v>
+        <v>-62.17990873015878</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-2.393925983436851</v>
+        <v>-1.317234126984125</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1203,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-63.22</v>
+        <v>-63.3776190476191</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-60.71240683229814</v>
+        <v>-62.19878571428576</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-2.507593167701856</v>
+        <v>-1.178833333333337</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1220,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-63.38714285714287</v>
+        <v>-63.252380952381</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-60.75445393374742</v>
+        <v>-62.21766269841275</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-2.632688923395449</v>
+        <v>-1.034718253968251</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1237,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-63.55333333333334</v>
+        <v>-63.14333333333337</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-60.7965010351967</v>
+        <v>-62.23653968253973</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-2.756832298136644</v>
+        <v>-0.9067936507936452</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1254,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-63.72285714285714</v>
+        <v>-63.05619047619052</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-60.83854813664597</v>
+        <v>-62.25541666666671</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-2.884309006211176</v>
+        <v>-0.8007738095238039</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1271,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-63.87238095238096</v>
+        <v>-62.97523809523814</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-60.88059523809525</v>
+        <v>-62.27429365079369</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-2.991785714285712</v>
+        <v>-0.7009444444444455</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1288,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-64.00952380952381</v>
+        <v>-62.90047619047623</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-60.92264233954452</v>
+        <v>-62.29317063492068</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-3.086881469979289</v>
+        <v>-0.6073055555555484</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1305,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-64.13809523809525</v>
+        <v>-62.82476190476195</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-60.9646894409938</v>
+        <v>-62.31204761904766</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-3.173405797101445</v>
+        <v>-0.5127142857142886</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1322,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-64.25666666666669</v>
+        <v>-62.7619047619048</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-61.00673654244307</v>
+        <v>-62.33092460317464</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-3.249930124223617</v>
+        <v>-0.4309801587301578</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1339,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-64.36333333333334</v>
+        <v>-62.70952380952384</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-61.04878364389235</v>
+        <v>-62.34980158730163</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-3.314549689440994</v>
+        <v>-0.3597222222222172</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1356,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-64.43952380952382</v>
+        <v>-62.66333333333336</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-61.09083074534163</v>
+        <v>-62.36867857142861</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-3.348693064182193</v>
+        <v>-0.2946547619047521</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1373,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-64.48000000000002</v>
+        <v>-62.61476190476195</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-61.1328778467909</v>
+        <v>-62.38755555555559</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-3.347122153209114</v>
+        <v>-0.2272063492063552</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1390,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-64.51333333333332</v>
+        <v>-62.56904761904765</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-61.17492494824018</v>
+        <v>-62.40643253968258</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-3.338408385093146</v>
+        <v>-0.1626150793650751</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1407,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-64.51142857142858</v>
+        <v>-62.53761904761909</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-61.21697204968945</v>
+        <v>-62.42530952380956</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-3.294456521739129</v>
+        <v>-0.1123095238095289</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1424,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-64.49000000000001</v>
+        <v>-62.52619047619052</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-61.25901915113873</v>
+        <v>-62.44418650793654</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-3.230980848861279</v>
+        <v>-0.0820039682539786</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1441,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-64.43857142857144</v>
+        <v>-62.52476190476195</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-61.30106625258801</v>
+        <v>-62.46306349206353</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-3.137505175983428</v>
+        <v>-0.06169841269842635</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1458,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-64.36142857142858</v>
+        <v>-62.51904761904766</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-61.34311335403728</v>
+        <v>-62.48194047619051</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-3.018315217391297</v>
+        <v>-0.03710714285715255</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1475,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-64.27047619047619</v>
+        <v>-62.51380952380957</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-61.38516045548656</v>
+        <v>-62.50081746031749</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-2.885315734989632</v>
+        <v>-0.01299206349207793</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1492,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-64.1795238095238</v>
+        <v>-62.52000000000005</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-61.42720755693583</v>
+        <v>-62.51969444444448</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-2.752316252587967</v>
+        <v>-0.0003055555555704359</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1509,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-64.08000000000001</v>
+        <v>-62.53857142857147</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-61.46925465838511</v>
+        <v>-62.53857142857146</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-2.610745341614901</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1526,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-63.96666666666667</v>
+        <v>-62.56619047619052</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-61.51130175983438</v>
+        <v>-62.56619047619052</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-2.455364906832287</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1543,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-63.8404761904762</v>
+        <v>-62.58333333333337</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-61.55334886128366</v>
+        <v>-62.58333333333337</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-2.287127329192543</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1560,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-63.72904761904763</v>
+        <v>-62.60190476190481</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-61.59539596273294</v>
+        <v>-62.60190476190481</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-2.13365165631469</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1577,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-63.61095238095239</v>
+        <v>-62.63142857142861</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-61.63744306418221</v>
+        <v>-62.63142857142861</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-1.973509316770176</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1594,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-63.49714285714287</v>
+        <v>-62.67047619047623</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-61.67949016563148</v>
+        <v>-62.67047619047623</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-1.817652691511384</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1611,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-63.37761904761906</v>
+        <v>-62.72476190476194</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-61.72153726708076</v>
+        <v>-62.72476190476194</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-1.656081780538301</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1628,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-63.25238095238096</v>
+        <v>-62.77380952380957</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-61.76358436853004</v>
+        <v>-62.77380952380957</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-1.48879658385092</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1645,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-63.14333333333334</v>
+        <v>-62.81476190476195</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-61.80563146997932</v>
+        <v>-62.81476190476195</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-1.33770186335402</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1662,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-63.05619047619048</v>
+        <v>-62.86380952380956</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-61.84767857142859</v>
+        <v>-62.86380952380956</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-1.208511904761892</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1679,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-62.9752380952381</v>
+        <v>-62.91952380952385</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-61.88972567287787</v>
+        <v>-62.91952380952385</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-1.085512422360239</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1696,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-62.90047619047619</v>
+        <v>-62.98523809523813</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-61.93177277432714</v>
+        <v>-62.98523809523813</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.9687034161490473</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1713,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-62.82476190476191</v>
+        <v>-63.04904761904766</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-61.97381987577642</v>
+        <v>-63.04904761904766</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.850942028985493</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1730,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-62.76190476190477</v>
+        <v>-63.1078571428572</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-62.01586697722569</v>
+        <v>-63.1078571428572</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.7460377846790749</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1747,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-62.70952380952381</v>
+        <v>-63.17071428571438</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-62.05791407867497</v>
+        <v>-63.17071428571438</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.6516097308488398</v>
+        <v>0</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1764,428 +1756,20 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-62.66333333333333</v>
+        <v>-63.24261904761917</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-62.09996118012425</v>
+        <v>-63.24261904761917</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.5633721532090803</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
       <c r="G77" s="2" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>-0.308</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>-62.61476190476191</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>-62.14200828157352</v>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>-0.4727536231883889</v>
-      </c>
-      <c r="E78" s="2" t="n"/>
-      <c r="F78" s="2" t="n"/>
-      <c r="G78" s="2" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>-0.312</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>-62.56904761904762</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>-62.18405538302279</v>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>-0.3849922360248286</v>
-      </c>
-      <c r="E79" s="2" t="n"/>
-      <c r="F79" s="2" t="n"/>
-      <c r="G79" s="2" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>-0.316</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>-62.53761904761905</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>-62.22610248447207</v>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>-0.3115165631469807</v>
-      </c>
-      <c r="E80" s="2" t="n"/>
-      <c r="F80" s="2" t="n"/>
-      <c r="G80" s="2" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>-62.52619047619049</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>-62.26814958592135</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>-0.258040890269136</v>
-      </c>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="2" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>-0.324</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>-62.52476190476192</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>-62.31019668737063</v>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>-0.2145652173912893</v>
-      </c>
-      <c r="E82" s="2" t="n"/>
-      <c r="F82" s="2" t="n"/>
-      <c r="G82" s="2" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>-0.328</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>-62.51904761904763</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>-62.3522437888199</v>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>-0.1668038302277282</v>
-      </c>
-      <c r="E83" s="2" t="n"/>
-      <c r="F83" s="2" t="n"/>
-      <c r="G83" s="2" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>-0.332</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>-62.51380952380953</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>-62.39429089026918</v>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>-0.1195186335403591</v>
-      </c>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="2" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>-0.336</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>-62.52000000000001</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>-62.43633799171845</v>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>-0.08366200828155712</v>
-      </c>
-      <c r="E85" s="2" t="n"/>
-      <c r="F85" s="2" t="n"/>
-      <c r="G85" s="2" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>-62.53857142857144</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>-62.47838509316773</v>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>-0.06018633540370644</v>
-      </c>
-      <c r="E86" s="2" t="n"/>
-      <c r="F86" s="2" t="n"/>
-      <c r="G86" s="2" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>-0.344</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>-62.56619047619049</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>-62.520432194617</v>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>-0.04575828157348383</v>
-      </c>
-      <c r="E87" s="2" t="n"/>
-      <c r="F87" s="2" t="n"/>
-      <c r="G87" s="2" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>-0.348</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>-62.58333333333334</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>-62.56247929606628</v>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>-0.02085403726706403</v>
-      </c>
-      <c r="E88" s="2" t="n"/>
-      <c r="F88" s="2" t="n"/>
-      <c r="G88" s="2" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>-0.352</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>-62.60190476190477</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>-62.60452639751556</v>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>0.002621635610786655</v>
-      </c>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-      <c r="G89" s="2" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>-0.356</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>-62.63142857142857</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>-62.64657349896483</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>0.01514492753626229</v>
-      </c>
-      <c r="E90" s="2" t="n"/>
-      <c r="F90" s="2" t="n"/>
-      <c r="G90" s="2" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>-62.67047619047619</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>-62.6886206004141</v>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>0.01814440993791067</v>
-      </c>
-      <c r="E91" s="2" t="n"/>
-      <c r="F91" s="2" t="n"/>
-      <c r="G91" s="2" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>-0.364</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>-62.72476190476191</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>-62.73066770186338</v>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>0.005905797101476651</v>
-      </c>
-      <c r="E92" s="2" t="n"/>
-      <c r="F92" s="2" t="n"/>
-      <c r="G92" s="2" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>-0.368</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>-62.77380952380953</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>-62.77271480331266</v>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>-0.001094720496872981</v>
-      </c>
-      <c r="E93" s="2" t="n"/>
-      <c r="F93" s="2" t="n"/>
-      <c r="G93" s="2" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>-0.372</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>-62.81476190476192</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>-62.81476190476194</v>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>2.131628207280301e-14</v>
-      </c>
-      <c r="E94" s="2" t="n"/>
-      <c r="F94" s="2" t="n"/>
-      <c r="G94" s="2" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>-0.376</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>-62.86380952380952</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>-62.86380952380952</v>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2" t="n"/>
-      <c r="F95" s="2" t="n"/>
-      <c r="G95" s="2" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>-62.91952380952382</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>-62.91952380952382</v>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2" t="n"/>
-      <c r="F96" s="2" t="n"/>
-      <c r="G96" s="2" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>-0.384</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>-62.9852380952381</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>-62.9852380952381</v>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2" t="n"/>
-      <c r="F97" s="2" t="n"/>
-      <c r="G97" s="2" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>-0.388</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>-63.04904761904763</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>-63.04904761904763</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2" t="n"/>
-      <c r="F98" s="2" t="n"/>
-      <c r="G98" s="2" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>-0.392</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>-63.10785714285718</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>-63.10785714285718</v>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2" t="n"/>
-      <c r="F99" s="2" t="n"/>
-      <c r="G99" s="2" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>-0.396</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>-63.17071428571437</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>-63.17071428571437</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2" t="n"/>
-      <c r="F100" s="2" t="n"/>
-      <c r="G100" s="2" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>-63.24261904761919</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>-63.24261904761919</v>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-      <c r="G101" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2198,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,7 +1791,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2224,26 +1808,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.216</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.5860015527950537</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>-0.208</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>-3.348693064182193</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>-0.368</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>-0.001094720496872981</v>
+        <v>-2.559948412698382</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp3.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,54 +477,58 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-61.40595238095247</v>
+        <v>-58.94642857142863</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-61.40595238095246</v>
+        <v>-58.94642857142863</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.016</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-2.559948412698382</v>
+        <v>-0.5866131621187591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-61.49547619047624</v>
+        <v>-59.38571428571432</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-61.42482936507945</v>
+        <v>-58.98827180310333</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.07064682539679268</v>
-      </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
+        <v>-0.397442482610991</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>-3.35909042268591</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-61.57619047619052</v>
+        <v>-59.59642857142861</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-61.44370634920643</v>
+        <v>-59.03011503477802</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1324841269840888</v>
+        <v>-0.5663135366505898</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -532,16 +536,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-61.65142857142861</v>
+        <v>-59.65857142857147</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-61.46258333333341</v>
+        <v>-59.07195826645271</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1888452380951975</v>
+        <v>-0.5866131621187591</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -549,16 +553,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-61.72333333333337</v>
+        <v>-59.65761904761908</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-61.4814603174604</v>
+        <v>-59.1138014981274</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.2418730158729758</v>
+        <v>-0.5438175494916777</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -566,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-61.80000000000004</v>
+        <v>-59.70142857142861</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-61.50033730158738</v>
+        <v>-59.1556447298021</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2996626984126607</v>
+        <v>-0.5457838416265091</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -583,16 +587,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-61.87714285714291</v>
+        <v>-59.74142857142861</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-61.51921428571436</v>
+        <v>-59.19748796147679</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.3579285714285447</v>
+        <v>-0.5439406099518251</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -600,16 +604,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-61.95571428571432</v>
+        <v>-59.78952380952384</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-61.53809126984135</v>
+        <v>-59.23933119315148</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.4176230158729766</v>
+        <v>-0.5501926163723638</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -617,16 +621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-62.0319047619048</v>
+        <v>-59.86095238095243</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-61.55696825396834</v>
+        <v>-59.28117442482618</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.4749365079364622</v>
+        <v>-0.5797779561262502</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -634,16 +638,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-62.12666666666671</v>
+        <v>-59.94285714285718</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-61.57584523809532</v>
+        <v>-59.32301765650087</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.550821428571389</v>
+        <v>-0.6198394863563124</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -651,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-62.22285714285718</v>
+        <v>-60.03285714285718</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-61.5947222222223</v>
+        <v>-59.36486088817556</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.6281349206348779</v>
+        <v>-0.6679962546816256</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -668,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-62.32142857142861</v>
+        <v>-60.12333333333337</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-61.61359920634928</v>
+        <v>-59.40670411985025</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.707829365079327</v>
+        <v>-0.7166292134831238</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -685,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-62.41809523809528</v>
+        <v>-60.20857142857147</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-61.63247619047627</v>
+        <v>-59.44854735152494</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.785619047619015</v>
+        <v>-0.7600240770465234</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -702,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-62.52000000000004</v>
+        <v>-60.30571428571433</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-61.65135317460325</v>
+        <v>-59.49039058319963</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.8686468253967874</v>
+        <v>-0.8153237025146964</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -719,16 +723,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-62.63095238095242</v>
+        <v>-60.40476190476195</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-61.67023015873023</v>
+        <v>-59.53223381487432</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.9607222222221807</v>
+        <v>-0.8725280898876235</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -736,16 +740,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-62.76619047619052</v>
+        <v>-60.51000000000004</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-61.68910714285722</v>
+        <v>-59.57407704654902</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-1.077083333333299</v>
+        <v>-0.9359229534510192</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -753,16 +757,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-62.91571428571432</v>
+        <v>-60.60523809523814</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-61.7079841269842</v>
+        <v>-59.61592027822371</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-1.207730158730122</v>
+        <v>-0.9893178170144239</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -770,16 +774,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-63.06428571428575</v>
+        <v>-60.69809523809528</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-61.72686111111118</v>
+        <v>-59.6577635098984</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-1.337424603174568</v>
+        <v>-1.040331728196875</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -787,16 +791,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-63.22000000000003</v>
+        <v>-60.80142857142861</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-61.74573809523817</v>
+        <v>-59.69960674157309</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.474261904761867</v>
+        <v>-1.101821829855517</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -804,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-63.3871428571429</v>
+        <v>-60.90809523809528</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-61.76461507936515</v>
+        <v>-59.74144997324779</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.622527777777755</v>
+        <v>-1.166645264847489</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -821,16 +825,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-63.55333333333337</v>
+        <v>-61.02000000000004</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-61.78349206349213</v>
+        <v>-59.78329320492248</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-1.769841269841237</v>
+        <v>-1.236706795077559</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -838,16 +842,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-63.72285714285718</v>
+        <v>-61.12523809523813</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-61.80236904761912</v>
+        <v>-59.82513643659717</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-1.920488095238063</v>
+        <v>-1.300101658640962</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-63.87238095238099</v>
+        <v>-61.21095238095242</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-61.8212460317461</v>
+        <v>-59.86697966827186</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-2.051134920634894</v>
+        <v>-1.343972712680561</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-64.00952380952386</v>
+        <v>-61.30666666666671</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-61.84012301587308</v>
+        <v>-59.90882289994656</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-2.169400793650773</v>
+        <v>-1.397843766720158</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-64.13809523809529</v>
+        <v>-61.40142857142862</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-61.85900000000007</v>
+        <v>-59.95066613162125</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-2.279095238095223</v>
+        <v>-1.45076243980737</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +910,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-64.25666666666672</v>
+        <v>-61.49285714285718</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-61.87787698412705</v>
+        <v>-59.99250936329594</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-2.378789682539669</v>
+        <v>-1.500347779561238</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +927,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-64.36333333333337</v>
+        <v>-61.57428571428575</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-61.89675396825403</v>
+        <v>-60.03435259497063</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-2.46657936507934</v>
+        <v>-1.539933119315116</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-64.43952380952385</v>
+        <v>-61.6514285714286</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-61.91563095238102</v>
+        <v>-60.07619582664532</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-2.523892857142833</v>
+        <v>-1.575232744783278</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +961,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-64.48000000000005</v>
+        <v>-61.72333333333337</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-61.934507936508</v>
+        <v>-60.11803905832002</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-2.545492063492048</v>
+        <v>-1.605294275013357</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +978,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-64.51333333333336</v>
+        <v>-61.80000000000004</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-61.95338492063498</v>
+        <v>-60.15988228999471</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-2.559948412698382</v>
+        <v>-1.640117710005335</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +995,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-64.51142857142861</v>
+        <v>-61.87714285714291</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-61.97226190476196</v>
+        <v>-60.2017255216694</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-2.539166666666645</v>
+        <v>-1.675417335473504</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-64.49000000000004</v>
+        <v>-61.95571428571432</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-61.99113888888895</v>
+        <v>-60.24356875334409</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-2.49886111111109</v>
+        <v>-1.712145532370229</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1029,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-64.43857142857146</v>
+        <v>-62.0319047619048</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-62.01001587301593</v>
+        <v>-60.28541198501878</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-2.428555555555533</v>
+        <v>-1.746492776886015</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1046,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-64.3614285714286</v>
+        <v>-62.12666666666671</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-62.02889285714291</v>
+        <v>-60.32725521669348</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-2.33253571428569</v>
+        <v>-1.799411449973228</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1063,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-64.27047619047623</v>
+        <v>-62.22285714285718</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-62.0477698412699</v>
+        <v>-60.36909844836817</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-2.222706349206334</v>
+        <v>-1.853758694489009</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1080,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-64.17952380952384</v>
+        <v>-62.32142857142861</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-62.06664682539688</v>
+        <v>-60.41094168004286</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-2.112876984126963</v>
+        <v>-1.910486891385752</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-64.08000000000004</v>
+        <v>-62.41809523809528</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-62.08552380952386</v>
+        <v>-60.45278491171755</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-1.994476190476178</v>
+        <v>-1.965310326377725</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1114,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-63.9666666666667</v>
+        <v>-62.52000000000004</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-62.10440079365085</v>
+        <v>-60.49462814339225</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-1.862265873015858</v>
+        <v>-2.025371856607791</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1131,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-63.84047619047624</v>
+        <v>-62.63095238095242</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-62.12327777777783</v>
+        <v>-60.53647137506694</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-1.717198412698409</v>
+        <v>-2.094481005885484</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1148,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-63.72904761904766</v>
+        <v>-62.76619047619052</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-62.14215476190481</v>
+        <v>-60.57831460674163</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-1.58689285714285</v>
+        <v>-2.187875869448888</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1165,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-63.61095238095243</v>
+        <v>-62.91571428571432</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-62.1610317460318</v>
+        <v>-60.62015783841633</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-1.44992063492063</v>
+        <v>-2.295556447297997</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1182,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-63.4971428571429</v>
+        <v>-63.06428571428575</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-62.17990873015878</v>
+        <v>-60.66200107009102</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-1.317234126984125</v>
+        <v>-2.402284644194737</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1199,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-63.3776190476191</v>
+        <v>-63.22000000000004</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-62.19878571428576</v>
+        <v>-60.70384430176571</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-1.178833333333337</v>
+        <v>-2.516155698234336</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1216,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-63.252380952381</v>
+        <v>-63.3871428571429</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-62.21766269841275</v>
+        <v>-60.7456875334404</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-1.034718253968251</v>
+        <v>-2.641455323702509</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1233,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-63.14333333333337</v>
+        <v>-63.55333333333337</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-62.23653968253973</v>
+        <v>-60.78753076511509</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.9067936507936452</v>
+        <v>-2.765802568218277</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1250,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-63.05619047619052</v>
+        <v>-63.72285714285718</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-62.25541666666671</v>
+        <v>-60.82937399678978</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.8007738095238039</v>
+        <v>-2.893483146067396</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1267,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-62.97523809523814</v>
+        <v>-63.87238095238099</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-62.27429365079369</v>
+        <v>-60.87121722846447</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.7009444444444455</v>
+        <v>-3.00116372391652</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1284,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-62.90047619047623</v>
+        <v>-64.00952380952386</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-62.29317063492068</v>
+        <v>-60.91306046013916</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.6073055555555484</v>
+        <v>-3.096463349384692</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1301,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-62.82476190476195</v>
+        <v>-64.13809523809529</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-62.31204761904766</v>
+        <v>-60.95490369181386</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.5127142857142886</v>
+        <v>-3.183191546281428</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1318,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-62.7619047619048</v>
+        <v>-64.25666666666672</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-62.33092460317464</v>
+        <v>-60.99674692348855</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.4309801587301578</v>
+        <v>-3.259919743178166</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1335,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-62.70952380952384</v>
+        <v>-64.36333333333339</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-62.34980158730163</v>
+        <v>-61.03859015516324</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.3597222222222172</v>
+        <v>-3.324743178170145</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1352,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-62.66333333333336</v>
+        <v>-64.43952380952385</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-62.36867857142861</v>
+        <v>-61.08043338683794</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.2946547619047521</v>
+        <v>-3.35909042268591</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1369,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-62.61476190476195</v>
+        <v>-64.48000000000005</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-62.38755555555559</v>
+        <v>-61.12227661851263</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.2272063492063552</v>
+        <v>-3.357723381487418</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1386,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-62.56904761904765</v>
+        <v>-64.51333333333336</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-62.40643253968258</v>
+        <v>-61.16411985018732</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.1626150793650751</v>
+        <v>-3.349213483146045</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1403,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-62.53761904761909</v>
+        <v>-64.51142857142861</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-62.42530952380956</v>
+        <v>-61.20596308186201</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.1123095238095289</v>
+        <v>-3.3054654895666</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1420,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-62.52619047619052</v>
+        <v>-64.49000000000004</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-62.44418650793654</v>
+        <v>-61.24780631353671</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.0820039682539786</v>
+        <v>-3.242193686463331</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1437,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-62.52476190476195</v>
+        <v>-64.43857142857146</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-62.46306349206353</v>
+        <v>-61.2896495452114</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.06169841269842635</v>
+        <v>-3.148921883360067</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1454,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-62.51904761904766</v>
+        <v>-64.36142857142862</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-62.48194047619051</v>
+        <v>-61.33149277688609</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.03710714285715255</v>
+        <v>-3.029935794542531</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1471,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-62.51380952380957</v>
+        <v>-64.27047619047623</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-62.50081746031749</v>
+        <v>-61.37333600856078</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.01299206349207793</v>
+        <v>-2.897140181915447</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1488,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-62.52000000000005</v>
+        <v>-64.17952380952384</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-62.51969444444448</v>
+        <v>-61.41517924023547</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.0003055555555704359</v>
+        <v>-2.764344569288369</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1505,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-62.53857142857147</v>
+        <v>-64.08000000000004</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-62.53857142857146</v>
+        <v>-61.45702247191016</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-1.4210854715202e-14</v>
+        <v>-2.622977528089876</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1522,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-62.56619047619052</v>
+        <v>-63.9666666666667</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-62.56619047619052</v>
+        <v>-61.49886570358485</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0</v>
+        <v>-2.467800963081849</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1539,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-62.58333333333337</v>
+        <v>-63.84047619047624</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-62.58333333333337</v>
+        <v>-61.54070893525955</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>0</v>
+        <v>-2.299767255216686</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1556,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-62.60190476190481</v>
+        <v>-63.72904761904766</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-62.60190476190481</v>
+        <v>-61.58255216693424</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>0</v>
+        <v>-2.14649545211342</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1573,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-62.63142857142861</v>
+        <v>-63.61095238095243</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-62.63142857142861</v>
+        <v>-61.62439539860893</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0</v>
+        <v>-1.986556982343494</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1590,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-62.67047619047623</v>
+        <v>-63.4971428571429</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-62.67047619047623</v>
+        <v>-61.66623863028363</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0</v>
+        <v>-1.830904226859275</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1607,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-62.72476190476194</v>
+        <v>-63.3776190476191</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-62.72476190476194</v>
+        <v>-61.70808186195832</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0</v>
+        <v>-1.669537185660779</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1624,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-62.77380952380957</v>
+        <v>-63.252380952381</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-62.77380952380957</v>
+        <v>-61.74992509363301</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0</v>
+        <v>-1.502455858747986</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1641,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-62.81476190476195</v>
+        <v>-63.14333333333337</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-62.81476190476195</v>
+        <v>-61.7917683253077</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0</v>
+        <v>-1.351565008025673</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1658,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-62.86380952380956</v>
+        <v>-63.05619047619052</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-62.86380952380956</v>
+        <v>-61.8336115569824</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0</v>
+        <v>-1.222578919208118</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1675,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-62.91952380952385</v>
+        <v>-62.97523809523814</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-62.91952380952385</v>
+        <v>-61.87545478865709</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0</v>
+        <v>-1.099783306581052</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,16 +1692,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-62.98523809523813</v>
+        <v>-62.90047619047623</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-62.98523809523813</v>
+        <v>-61.91729802033178</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0</v>
+        <v>-0.9831781701444484</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1705,16 +1709,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-63.04904761904766</v>
+        <v>-62.82476190476195</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-63.04904761904766</v>
+        <v>-61.95914125200648</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0</v>
+        <v>-0.8656206527554744</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1722,16 +1726,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-63.1078571428572</v>
+        <v>-62.7619047619048</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-63.1078571428572</v>
+        <v>-62.00098448368117</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0</v>
+        <v>-0.7609202782236366</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1739,16 +1743,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-63.17071428571438</v>
+        <v>-62.70952380952384</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-63.17071428571438</v>
+        <v>-62.04282771535586</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0</v>
+        <v>-0.6666960941679889</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1756,20 +1760,428 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-63.24261904761917</v>
+        <v>-62.66333333333336</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-63.24261904761917</v>
+        <v>-62.08467094703055</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0</v>
+        <v>-0.5786623863028169</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
       <c r="G77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>-0.308</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>-62.61476190476194</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>-62.12651417870524</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>-0.4882477260566986</v>
+      </c>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="2" t="n"/>
+      <c r="G78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>-0.312</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>-62.56904761904766</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>-62.16835741037993</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>-0.4006902086677258</v>
+      </c>
+      <c r="E79" s="2" t="n"/>
+      <c r="F79" s="2" t="n"/>
+      <c r="G79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>-0.316</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>-62.53761904761909</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>-62.21020064205462</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>-0.3274184055644653</v>
+      </c>
+      <c r="E80" s="2" t="n"/>
+      <c r="F80" s="2" t="n"/>
+      <c r="G80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>-62.52619047619052</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>-62.25204387372932</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>-0.2741466024612009</v>
+      </c>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>-0.324</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>-62.52476190476195</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>-62.29388710540401</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>-0.2308747993579345</v>
+      </c>
+      <c r="E82" s="2" t="n"/>
+      <c r="F82" s="2" t="n"/>
+      <c r="G82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>-62.51904761904766</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>-62.3357303370787</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>-0.1833172819689608</v>
+      </c>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="n"/>
+      <c r="G83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>-0.332</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>-62.51380952380956</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>-62.37757356875339</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>-0.136235955056172</v>
+      </c>
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="n"/>
+      <c r="G84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>-0.336</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>-62.52000000000004</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>-62.41941680042809</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>-0.1005831995719504</v>
+      </c>
+      <c r="E85" s="2" t="n"/>
+      <c r="F85" s="2" t="n"/>
+      <c r="G85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>-62.53857142857147</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>-62.46126003210278</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>-0.07731139646869423</v>
+      </c>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>-0.344</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>-62.56619047619053</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>-62.50310326377747</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>-0.06308721241305904</v>
+      </c>
+      <c r="E87" s="2" t="n"/>
+      <c r="F87" s="2" t="n"/>
+      <c r="G87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>-0.348</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>-62.58333333333338</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>-62.54494649545216</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>-0.03838683788121955</v>
+      </c>
+      <c r="E88" s="2" t="n"/>
+      <c r="F88" s="2" t="n"/>
+      <c r="G88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>-0.352</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>-62.60190476190481</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>-62.58678972712686</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>-0.01511503477794918</v>
+      </c>
+      <c r="E89" s="2" t="n"/>
+      <c r="F89" s="2" t="n"/>
+      <c r="G89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>-0.356</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>-62.63142857142861</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>-62.62863295880155</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>-0.002795612627068067</v>
+      </c>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+      <c r="G90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>-62.67047619047624</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>-62.67047619047624</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2" t="n"/>
+      <c r="F91" s="2" t="n"/>
+      <c r="G91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>-0.364</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>-62.72476190476195</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>-62.72476190476195</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="n"/>
+      <c r="F92" s="2" t="n"/>
+      <c r="G92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>-0.368</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>-62.77380952380957</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>-62.77380952380957</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2" t="n"/>
+      <c r="F93" s="2" t="n"/>
+      <c r="G93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>-0.372</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>-62.81476190476195</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>-62.81476190476195</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2" t="n"/>
+      <c r="F94" s="2" t="n"/>
+      <c r="G94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>-0.376</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>-62.86380952380956</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>-62.86380952380956</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="n"/>
+      <c r="F95" s="2" t="n"/>
+      <c r="G95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>-62.91952380952385</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>-62.91952380952385</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2" t="n"/>
+      <c r="F96" s="2" t="n"/>
+      <c r="G96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>-0.384</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>-62.98523809523813</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>-62.98523809523813</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2" t="n"/>
+      <c r="F97" s="2" t="n"/>
+      <c r="G97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>-0.388</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>-63.04904761904766</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>-63.04904761904766</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2" t="n"/>
+      <c r="F98" s="2" t="n"/>
+      <c r="G98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>-0.392</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>-63.10785714285718</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>-63.10785714285718</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2" t="n"/>
+      <c r="F99" s="2" t="n"/>
+      <c r="G99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>-0.396</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>-63.17071428571438</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>-63.17071428571438</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2" t="n"/>
+      <c r="F100" s="2" t="n"/>
+      <c r="G100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>-63.24261904761921</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>-63.24261904761921</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="n"/>
+      <c r="G101" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1782,7 +2194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1808,10 +2220,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.016</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-2.559948412698382</v>
+        <v>-0.5866131621187591</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>-3.35909042268591</v>
       </c>
     </row>
   </sheetData>
